--- a/biology/Botanique/Reine-claude_diaphane/Reine-claude_diaphane.xlsx
+++ b/biology/Botanique/Reine-claude_diaphane/Reine-claude_diaphane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Reine-claude diaphane est une variété de prune ronde, de couleur jaune, lavée de rose[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Reine-claude diaphane est une variété de prune ronde, de couleur jaune, lavée de rose.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Homonymies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Synonymes : 
 Transparent gage ;
 Reine-claude de Guigne ;
-Diaphane[1].</t>
+Diaphane.</t>
         </is>
       </c>
     </row>
@@ -544,9 +558,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été obtenue à partir d'un semis de Reine-claude dorée en 1845[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été obtenue à partir d'un semis de Reine-claude dorée en 1845.
 </t>
         </is>
       </c>
@@ -575,12 +591,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La chair est jaune, de saveur sucrée et acide.
 La prune est d'un aspect voisin de la Reine-claude dorée .
-Le prunier est de forte vigueur, autofertile, mais aura une meilleure pollinisation en verger venteux. L'arbre est pollinisé par Reine-claude d'Althan, par Reine-claude d'Oullins, ou par la Prune d'Ente[2].
-La récolte, vers mi-août en Europe, est considérée comme très abondante par les pépiniéristes[1].
+Le prunier est de forte vigueur, autofertile, mais aura une meilleure pollinisation en verger venteux. L'arbre est pollinisé par Reine-claude d'Althan, par Reine-claude d'Oullins, ou par la Prune d'Ente.
+La récolte, vers mi-août en Europe, est considérée comme très abondante par les pépiniéristes.
 </t>
         </is>
       </c>
